--- a/dist/gui_launcher/rebo.xlsx
+++ b/dist/gui_launcher/rebo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,69 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>le: 2023-08-23 13:55:59.819114</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Trajet: Algésiras - Tanger Med</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Company: AML - Africa Moroco Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>180,17 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Company: FRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>223,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>227,00 €</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
